--- a/swot_analysis.xlsx
+++ b/swot_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie\Documents\latex\git\Strategiepapier-Moschti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8029DA44-8E1D-4802-A393-A710EDCDB77A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7554A1-C14C-439C-9D10-2C8D36E62B3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,8 +531,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
